--- a/biology/Médecine/Psychomotricité/Psychomotricité.xlsx
+++ b/biology/Médecine/Psychomotricité/Psychomotricité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Psychomotricit%C3%A9</t>
+          <t>Psychomotricité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La psychomotricité est un domaine des sciences humaines spécialisé dans les interactions entre motricité, sensorialité, cognition et psychisme dans leurs contextes émotionnel et relationnel. Elle représente l’ensemble des phénomènes relatifs à l’expression et à la régulation des comportements à la fois moteurs et psychologiques au niveau du corps. 
 La psychomotricité est aussi une profession de santé. Elle s'articule au carrefour des fonctions motrices, des fonctions exécutives qu'elles soient en rapport direct ou indirect avec l'environnement, la psychologie et/ou les fonctions neuromotrices du sujet. 
@@ -502,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Psychomotricit%C3%A9</t>
+          <t>Psychomotricité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,7 +532,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme "psychomotricité" aurait été initialement conçu en Allemagne en 1843 par Wilhelm Griesinger fondateur de la neuropsychiatrie (Lehmans &amp; Cornu, 1999) et repris ensuite en France par Ernest Dupré au début du XXe siècle.
 Le concept a été investi et développé dans divers champs de recherche : pédagogie, psychiatrie, psychologie. 
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Psychomotricit%C3%A9</t>
+          <t>Psychomotricité</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Développement du courant de pensée de la psychomotricité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La psychomotricité prend en compte la liaison entre corps et psychisme.
 De longues années de débats philosophiques n'ont pas réussi à résoudre la dichotomie corps-esprit. 
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Psychomotricit%C3%A9</t>
+          <t>Psychomotricité</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Les troubles psychomoteurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les troubles psychomoteurs se manifestent à la fois dans la façon dont le sujet est engagé dans l'action mais aussi dans la relation avec autrui et dans l'environnement. Les troubles psychomoteurs sont des troubles neurodéveloppementaux qui affectent l'adaptation du sujet dans sa dimension perceptivomotrice. Leurs causes sont plurifactorielles et transactionnelles associant des facteurs génétiques, neurobiologiques, psychologiques et psychosociaux qui agissent à différents niveaux de complémentarité et d'expression. Ils sont souvent situationnels et discrets, entravant en priorité les mécanismes d'adaptation, constituant une source de désagrément et de souffrance pour le sujet et son milieu social. Leur analyse clinique s'appuie sur une connaissance référentielle approfondie du développement normal. Elle nécessite des investigations spécifiques dont l'examen psychomoteur, pour appréhender les aspects qualitatifs et quantitatifs des perceptions, des représentations et des actions du sujet (Albaret, 2011).
 Les principaux troubles psychomoteurs sont :
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Psychomotricit%C3%A9</t>
+          <t>Psychomotricité</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,15 +662,90 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au sujet des formations
-L'intérêt pour la psychomotricité et la reconnaissance de son efficacité ont conduit le gouvernement français à créer un diplôme d'État de psychomotricien en 1974. 15 centre de formation reconnus existent en France et conduisent au diplôme d'État (deux à Paris (dont un en fait à Boulogne-Billancourt), une à Lille, une à Toulouse, une à Bordeaux, une à Lyon et une à Marseille, une à Meulan-les-Mureaux, une à La Garde[1], une à Mulhouse, une à Rouen, une à Orléans, une à Vichy, une à Alençon et une sur l'île de La Réunion). Le diplôme d'état n'est pas reconnu comme un niveau licence mais comme un Bac+2. En effet, les stages ne sont pas inclus dans la formation aux yeux de l’État. Beaucoup de professionnels (dont la Fédération Française des Psychomotriciens[2]) demandent un allongement d'un an d'études. En 2023, la formation se déroule encore en 3 ans. Une refonte des programmes est en cours dans le cadre de la réingénierie des professions de Santé (passation à une durée de 5 ans d'étude avec grade master).
+          <t>Au sujet des formations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intérêt pour la psychomotricité et la reconnaissance de son efficacité ont conduit le gouvernement français à créer un diplôme d'État de psychomotricien en 1974. 15 centre de formation reconnus existent en France et conduisent au diplôme d'État (deux à Paris (dont un en fait à Boulogne-Billancourt), une à Lille, une à Toulouse, une à Bordeaux, une à Lyon et une à Marseille, une à Meulan-les-Mureaux, une à La Garde, une à Mulhouse, une à Rouen, une à Orléans, une à Vichy, une à Alençon et une sur l'île de La Réunion). Le diplôme d'état n'est pas reconnu comme un niveau licence mais comme un Bac+2. En effet, les stages ne sont pas inclus dans la formation aux yeux de l’État. Beaucoup de professionnels (dont la Fédération Française des Psychomotriciens) demandent un allongement d'un an d'études. En 2023, la formation se déroule encore en 3 ans. Une refonte des programmes est en cours dans le cadre de la réingénierie des professions de Santé (passation à une durée de 5 ans d'étude avec grade master).
 En Suisse, à Genève, une formation a été créée par J. de Ajuriaguerra lui-même en collaboration avec Mme S. Naville qui a ensuite été la directrice de l'école à Zurich. Une troisième école existait à Bâle mais elle s'est fermée. Actuellement la formation à Genève qui fait partie de la HES-SO est de niveau Master.
 Ailleurs, au Danemark, la psychomotricité s'est développée dès les années 1930, à partir de techniques de conscience corporelle, comme l'Eutonie, dont l'une des pionnières était Gerda Alexander. Depuis 2002 la formation en psychomotricité est une formation publique au niveau Bachelor (3 1/2 ans) et elle est proposée par deux écoles supérieures.
-Les pratiques psychomotrices et leurs champs d'application.
-Les pratiques psychomotrices en France font partie du domaine paramédical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Psychomotricité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychomotricit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>La discipline professionnelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les pratiques psychomotrices et leurs champs d'application.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pratiques psychomotrices en France font partie du domaine paramédical.
 En Suisse les praticiens exercent principalement dans les domaines pédagothérapeutiques et médicothérapeutiques.
-Buts des interventions
-La thérapeutique psychomotrice a pour objet de prévenir ou de traiter les troubles psychomoteurs ou les handicaps, conçus comme une altération du développement psychomoteur et de l'organisation psychomotrice d'une personne, d'un patient à tous les âges de la vie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Psychomotricité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Psychomotricit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>La discipline professionnelle</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Buts des interventions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thérapeutique psychomotrice a pour objet de prévenir ou de traiter les troubles psychomoteurs ou les handicaps, conçus comme une altération du développement psychomoteur et de l'organisation psychomotrice d'une personne, d'un patient à tous les âges de la vie.
 Le psychomotricien intervient selon le décret de compétences établi en 1988 et revu en 2004 :
 1. Bilan psychomoteur.
 2. Éducation précoce et stimulation psychomotrices.
@@ -676,31 +769,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Psychomotricit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Psychomotricité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Psychomotricit%C3%A9</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Troubles psychomoteurs et classifications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la CIM 10 et dans le DSM-5 (2013) plusieurs entités diagnostiques sont des troubles psychomoteurs authentiques tels que le Trouble Déficit de l'Attention/Hyperactivité (TDA/H), le Trouble de l'Acquisition de la Coordination ou Trouble Développemental de la Coordination (TDC, Geuze, 2005), les tics, les stéréotypies motrices (Corraze, 1999). Concernant le DSM-5, les troubles psychomoteurs sont regroupés, au sein de la catégorie des Troubles neurodéveloppementaux, en deux entités : les Troubles moteurs qui contiennent le TDC, les Mouvements stéréotypés et les Tics ; Le TDA/H.
 La CFTMEA R- 2012 met en évidence la catégorie des troubles psychomoteurs chez l'enfant. 
